--- a/docs/Complete_Summary.xlsx
+++ b/docs/Complete_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhruv\Coding\OpenCV\TSE\TSE_Final_Project-master\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razer User\Music\TSE_Final_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9816F-5537-4BE1-954E-6AED3367D506}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21226750-8A05-4AFE-A721-0BAF6EBF760F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Result Summary" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="49">
   <si>
     <t>(Name)</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>Multiple Sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is </t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Second Best</t>
+  </si>
+  <si>
+    <t>Ran for (5,5), (8,8) ,(9,9) &amp; (10,10) pair of k &amp; L values</t>
   </si>
 </sst>
 </file>
@@ -764,10 +776,10 @@
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5185,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7EF32D-FBE6-4F26-BDB8-6EC5879E3526}">
   <dimension ref="A6:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -5511,21 +5523,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6098,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:G67"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,6 +6125,9 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7580,15 +7595,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -7863,7 +7878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -7891,7 +7906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -7919,7 +7934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -7975,7 +7990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -8003,7 +8018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -8031,7 +8046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
@@ -8055,8 +8070,13 @@
         <f t="shared" si="29"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -8081,7 +8101,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -8106,7 +8126,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -8131,7 +8151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -8155,8 +8175,24 @@
         <f t="shared" ref="G92" si="35">SUM(G76,G81,G86)</f>
         <v>187</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I93" s="15"/>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -8181,7 +8217,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -8206,7 +8242,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -8282,8 +8318,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="I88:K88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8292,10 +8329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B50"/>
+      <selection activeCell="I88" sqref="I88:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8307,6 +8344,9 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9774,15 +9814,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -10057,7 +10097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -10085,7 +10125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -10113,7 +10153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -10141,7 +10181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -10169,7 +10209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -10197,7 +10237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -10225,7 +10265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
@@ -10249,8 +10289,13 @@
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -10275,7 +10320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -10300,7 +10345,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -10325,7 +10370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -10349,8 +10394,24 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I93" s="15"/>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -10375,7 +10436,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -10400,7 +10461,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -10476,8 +10537,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="I88:K88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10486,10 +10548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10501,6 +10563,9 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11968,15 +12033,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -12251,7 +12316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -12279,7 +12344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -12307,7 +12372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -12335,7 +12400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -12363,7 +12428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -12391,7 +12456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -12419,7 +12484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
@@ -12443,8 +12508,13 @@
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -12469,7 +12539,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -12494,7 +12564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -12519,7 +12589,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -12543,8 +12613,24 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I93" s="15"/>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -12569,7 +12655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -12594,7 +12680,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -12670,8 +12756,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="I88:K88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12680,10 +12767,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12695,6 +12782,9 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -14162,15 +14252,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -14445,7 +14535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -14473,7 +14563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -14501,7 +14591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -14529,7 +14619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -14557,7 +14647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -14585,7 +14675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -14613,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
@@ -14637,8 +14727,13 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -14663,7 +14758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -14688,7 +14783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -14713,7 +14808,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -14737,8 +14832,24 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I93" s="15"/>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -14763,7 +14874,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -14788,7 +14899,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -14864,8 +14975,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="I88:K88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14874,10 +14986,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84:K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14889,6 +15001,7 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -16356,15 +16469,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -16639,7 +16752,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -16667,7 +16780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -16695,7 +16808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -16723,7 +16836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -16750,8 +16863,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -16779,7 +16897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -16807,12 +16925,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="15">
-        <f t="shared" ref="C88:G89" si="1">SUM(C72,C77,C82)</f>
+        <f t="shared" ref="C88:I89" si="1">SUM(C72,C77,C82)</f>
         <v>96.454138279412319</v>
       </c>
       <c r="D88" s="5">
@@ -16831,8 +16949,15 @@
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="7"/>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -16856,8 +16981,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89" s="15"/>
+      <c r="J89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -16882,7 +17014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -16907,7 +17039,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -16932,7 +17064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -16957,7 +17089,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -16982,7 +17114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -17058,8 +17190,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="I84:K84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17068,10 +17201,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17081,8 +17214,11 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18550,15 +18686,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -18833,7 +18969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -18861,7 +18997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -18889,7 +19025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -18917,7 +19053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -18945,7 +19081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -18973,7 +19109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>14</v>
       </c>
@@ -19001,7 +19137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>21</v>
       </c>
@@ -19025,8 +19161,13 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J88" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>22</v>
       </c>
@@ -19051,7 +19192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>23</v>
       </c>
@@ -19076,7 +19217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>24</v>
       </c>
@@ -19101,7 +19242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
@@ -19125,8 +19266,24 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J92" s="7"/>
+      <c r="K92" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J93" s="15"/>
+      <c r="K93" t="s">
+        <v>45</v>
+      </c>
+      <c r="L93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>26</v>
       </c>
@@ -19151,7 +19308,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -19176,7 +19333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>28</v>
       </c>
@@ -19252,8 +19409,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A69:G69"/>
+    <mergeCell ref="J88:L88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Complete_Summary.xlsx
+++ b/docs/Complete_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razer User\Music\TSE_Final_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21226750-8A05-4AFE-A721-0BAF6EBF760F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD3666-D961-4D3D-98D0-AF170B4D2709}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Result Summary" sheetId="9" r:id="rId1"/>
@@ -5197,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7EF32D-FBE6-4F26-BDB8-6EC5879E3526}">
   <dimension ref="A6:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -16930,7 +16930,7 @@
         <v>21</v>
       </c>
       <c r="C88" s="15">
-        <f t="shared" ref="C88:I89" si="1">SUM(C72,C77,C82)</f>
+        <f t="shared" ref="C88:G89" si="1">SUM(C72,C77,C82)</f>
         <v>96.454138279412319</v>
       </c>
       <c r="D88" s="5">
@@ -17203,8 +17203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19216,6 +19216,13 @@
         <f>SUM(G74,G79,G84)</f>
         <v>66</v>
       </c>
+      <c r="J90" s="7"/>
+      <c r="K90" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
@@ -19241,6 +19248,13 @@
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
+      <c r="J91" s="15"/>
+      <c r="K91" t="s">
+        <v>45</v>
+      </c>
+      <c r="L91" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
@@ -19265,22 +19279,6 @@
       <c r="G92" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
-      </c>
-      <c r="J92" s="7"/>
-      <c r="K92" t="s">
-        <v>45</v>
-      </c>
-      <c r="L92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J93" s="15"/>
-      <c r="K93" t="s">
-        <v>45</v>
-      </c>
-      <c r="L93" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
